--- a/data/trans_dic/P39A3_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P39A3_2023-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9239267795436183</v>
+        <v>0.9239267795436188</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.9174754504250262</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8975589578489015</v>
+        <v>0.8974986999205506</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8952913088561486</v>
+        <v>0.8933597447524331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9019931507730151</v>
+        <v>0.9038542866898464</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9434737526795081</v>
+        <v>0.9448474002794083</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9376412067264163</v>
+        <v>0.9355869031899464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9346085493963925</v>
+        <v>0.9348600032255574</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.8929421859515595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9101662196877692</v>
+        <v>0.9101662196877691</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8997276956353942</v>
+        <v>0.8973113272700918</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8639574090258614</v>
+        <v>0.8612901181477052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8897795434865706</v>
+        <v>0.8929101592404051</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9444485288869534</v>
+        <v>0.946079600103672</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9158442746845573</v>
+        <v>0.9188309260950475</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9266639551860879</v>
+        <v>0.9258537809620775</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.8854394721345283</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.897672638825042</v>
+        <v>0.8976726388250422</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.868898123526632</v>
+        <v>0.8658961605138866</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8392364590120741</v>
+        <v>0.8411480439841429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8712083626027307</v>
+        <v>0.8683203963219367</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9280277318871363</v>
+        <v>0.9262629309090781</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9182507262892265</v>
+        <v>0.919983198560004</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9168949114608068</v>
+        <v>0.9167637926058211</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.9195168529083535</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9066361635937064</v>
+        <v>0.9066361635937062</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.9138916591219004</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8994512847197109</v>
+        <v>0.901645143946487</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8887546137418167</v>
+        <v>0.8878565931815895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9006751349486728</v>
+        <v>0.9006348981140078</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9358159138212491</v>
+        <v>0.9368897138544585</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9227689540104809</v>
+        <v>0.9227096029244868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9248667054314085</v>
+        <v>0.9255106719743683</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8825673319372334</v>
+        <v>0.8825673319372335</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8979966369075407</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8504929399012681</v>
+        <v>0.8509945963457803</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.878986538464245</v>
+        <v>0.8785586314849754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8753160360853948</v>
+        <v>0.87345134131696</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9108329594785659</v>
+        <v>0.9115873919068902</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9136804608846407</v>
+        <v>0.9148433326719773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9081189700547175</v>
+        <v>0.9067560973050754</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8868999278342814</v>
+        <v>0.8868999278342815</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9178875005574733</v>
+        <v>0.9178875005574731</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9113793087347821</v>
+        <v>0.9113793087347822</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7970398277027244</v>
+        <v>0.7977428891684726</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8976960372445145</v>
+        <v>0.9005262820657232</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8881576235253704</v>
+        <v>0.8905184812306516</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9369191961731455</v>
+        <v>0.9377284716994643</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9331577855143605</v>
+        <v>0.9342838011823404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9289898404749777</v>
+        <v>0.9301915309097466</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9111809305095573</v>
+        <v>0.9111809305095574</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.9059460250726646</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9084885661985408</v>
+        <v>0.9084885661985407</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8990194578948921</v>
+        <v>0.8993187864906369</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8970311354511409</v>
+        <v>0.8978074102783228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9019138224964266</v>
+        <v>0.9005305974751868</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9212700933092185</v>
+        <v>0.9213999082417698</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9138955718680599</v>
+        <v>0.9142072906318495</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9152960523189437</v>
+        <v>0.9143955396741232</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>481756</v>
+        <v>481723</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>427763</v>
+        <v>426840</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>915101</v>
+        <v>916989</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>506400</v>
+        <v>507137</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>447997</v>
+        <v>447016</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>948190</v>
+        <v>948445</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>426522</v>
+        <v>425377</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>353403</v>
+        <v>352312</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>785771</v>
+        <v>788536</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>447722</v>
+        <v>448496</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>374627</v>
+        <v>375849</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>818344</v>
+        <v>817629</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>387675</v>
+        <v>386335</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>150354</v>
+        <v>150697</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>544787</v>
+        <v>542981</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>414056</v>
+        <v>413269</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>164510</v>
+        <v>164821</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>573355</v>
+        <v>573273</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>958161</v>
+        <v>960498</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>734029</v>
+        <v>733287</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1703339</v>
+        <v>1703263</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>996899</v>
+        <v>998043</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>762121</v>
+        <v>762072</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1749089</v>
+        <v>1750307</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>405769</v>
+        <v>406009</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>659306</v>
+        <v>658985</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1074165</v>
+        <v>1071877</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>434557</v>
+        <v>434917</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>685329</v>
+        <v>686201</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1114420</v>
+        <v>1112748</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>157526</v>
+        <v>157665</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>667331</v>
+        <v>669435</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>835774</v>
+        <v>837996</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>185172</v>
+        <v>185332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>693693</v>
+        <v>694530</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>874198</v>
+        <v>875329</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2874144</v>
+        <v>2875101</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3036776</v>
+        <v>3039404</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5936703</v>
+        <v>5927598</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2945278</v>
+        <v>2945693</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3093868</v>
+        <v>3094924</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6024789</v>
+        <v>6018861</v>
       </c>
     </row>
     <row r="32">
